--- a/inspection/tat_repair.xlsx
+++ b/inspection/tat_repair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,189 +508,239 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FMSV2023020050</t>
+          <t>FMSV2023010021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hanoi Medical University Hospital</t>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC-600WI</t>
+          <t>VP-3500</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1C692K487</t>
+          <t>1V609K145</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-02-27 00:00:00</t>
+          <t>2023-01-10 17:03:08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023-02-27 00:00:00</t>
+          <t>2023-01-10 17:03:08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Confirmed: 27-Feb. </t>
+          <t>2023-01-10 17:03:08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2023-05-29 11:55:56</t>
+          <t>2023-04-12 10:24:15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FMSV2023080031</t>
+          <t>FMSV2023020007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FUJIFILM Vietnam Co., Ltd.</t>
+          <t>FTYO - Loaner Asset</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ED-580XT</t>
+          <t>XL-4450</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3D127K095</t>
+          <t>1S094K195</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-08-07</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-08-22 12:11:27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2023-02-10 12:55:31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-02-10 12:55:31</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-02-10 12:55:31</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2023-08-22 12:11:38</t>
+          <t>2023-04-10 17:41:30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FMSV2023080036</t>
+          <t>FMSV2023020009</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FUJIFILM Vietnam Co., Ltd.</t>
+          <t>FTYO - Loaner Asset</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EG-760R</t>
+          <t>XL-4450</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6G402K254</t>
+          <t>1S094K192</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-08-18 17:02:26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>2023-02-13 12:28:57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-02-13 12:28:57</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-02-13 12:28:57</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2023-08-18 17:02:38</t>
+          <t>2023-04-10 16:31:43</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FMSV2023080043</t>
+          <t>FMSV2023020015</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dong Thap General Hospital</t>
+          <t>Tam Anh General Hospital</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EG-530WR</t>
+          <t>EC-760ZP-V/L</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7G361K163</t>
+          <t>6C731K062</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-08-14 13:07:06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>2023-02-07 15:38:55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-02-07 15:38:55</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-02-07 15:38:55</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2023-08-18 10:55:03</t>
+          <t>2023-04-05 13:04:28</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -698,7 +748,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -706,145 +756,185 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FMSV2023080044</t>
+          <t>FMSV2023020030</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dong Thap General Hospital</t>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EG-530WR</t>
+          <t>EC-530WI3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7G361K162</t>
+          <t>1C642K350</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-08-14 17:01:09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>2023-02-21 17:19:46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-02-21 17:19:46</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-02-21 17:19:46</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2023-08-18 11:44:38</t>
+          <t>2023-04-13 12:35:48</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FMSV2023080048</t>
+          <t>FMSV2023020033</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FUJIFILM Vietnam Co., Ltd.</t>
+          <t>MINH DUC HOSPITAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EB-580T</t>
+          <t>EG-580NW2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3B090K027</t>
+          <t>6G390K112</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023-08-22 12:31:14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>2023-02-15 10:31:14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023-02-15 10:31:14</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-02-15 10:31:14</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2023-08-22 12:31:28</t>
+          <t>2023-04-24 11:37:16</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FMSV2023080054</t>
+          <t>FMSV2023020055</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FUJIFILM Vietnam Co., Ltd.</t>
+          <t>Thien Hanh Hospital</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC-760R-V/I</t>
+          <t>EG-600WR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6C728K116</t>
+          <t>2G391K491</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-08-21 13:19:57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>2023-03-01 11:11:51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-03-01 11:11:51</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-03-01 11:11:51</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2023-08-21 13:20:03</t>
+          <t>2023-04-05 16:59:35</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -852,93 +942,115 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FMSV2023080065</t>
+          <t>FMSV2023020064</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hanoi Medical University Hospital</t>
+          <t>Lam Hoa Private Hospital</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EG-600WR</t>
+          <t>EG-250WR5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2G391K088</t>
+          <t>3G202K117</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-02-27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-08-22 14:04:28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>2023-03-01 16:04:21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-03-01 16:04:21</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-03-01 16:04:21</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2023-08-22 14:04:41</t>
+          <t>2023-04-14 10:34:47</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FMSV2023080066</t>
+          <t>FMSV2023030004</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hanoi Medical University Hospital</t>
+          <t>Lam Hoa Private Hospital</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EG-600WR</t>
+          <t>EC-250WL5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2G391K086</t>
+          <t>1C309K245</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023-08-22 12:58:43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>2023-03-08 17:11:51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023-03-08 17:11:51</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-03-08 17:11:51</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2023-08-22 12:58:55</t>
+          <t>2023-03-27 20:15:53</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -946,7 +1058,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -954,98 +1066,5456 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FMSV2023080072</t>
+          <t>FMSV2023030014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FUJIFILM Vietnam Co., Ltd.</t>
+          <t>Tam Anh General Hospital</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EC-760R-V/I</t>
+          <t>EG-760Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1C728K438</t>
+          <t>5G403K130</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-08-24 12:33:36</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>2023-03-13 17:28:34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2023-03-13 17:28:34</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-03-13 17:28:34</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2023-08-24 12:33:49</t>
+          <t>2023-05-22 11:15:49</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FMSV2023080086</t>
+          <t>FMSV2023030015</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hung Viet Cancer Hospital</t>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EG-760Z</t>
+          <t>EC-760ZP-V/M</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8G403K185</t>
+          <t>2C730K019</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023-08-23 17:08:50</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t>2023-03-10 13:04:31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-03-10 13:04:31</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-03-10 13:04:31</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2023-08-23 17:09:06</t>
+          <t>2023-03-24 12:42:37</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>27</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FMSV2023030023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7G391K085</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2023-03-21 13:19:45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2023-03-21 13:19:45</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-03-21 13:19:45</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-03-27 16:06:31</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FMSV2023030024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2G391K643</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2023-03-21 16:02:01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-03-21 16:02:01</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-03-21 16:02:01</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-04-04 18:33:21</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>14</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FMSV2023030025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2G391K784</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2023-03-21 13:38:58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023-03-21 13:38:58</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-03-21 13:38:58</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-04-03 16:47:21</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>14</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FMSV2023030026</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5G391K028</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2023-03-21 16:15:48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2023-03-21 16:15:48</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-03-21 16:15:48</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-03-23 18:50:47</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FMSV2023030027</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5G391K021</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2023-03-21 16:56:39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-03-21 16:56:39</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-03-21 16:56:39</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023-03-27 16:07:17</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FMSV2023030028</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7G391K091</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2023-03-21 17:32:51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2023-03-21 17:32:51</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-03-21 17:32:51</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-04-03 15:40:49</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>17</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FMSV2023030029</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bach Mai Hospital</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8G391K041</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-03-16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2023-03-21 12:57:19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2023-03-21 12:57:19</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-03-21 12:57:19</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-03-27 16:05:41</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FMSV2023030037</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2G391K086</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-03-21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2023-03-23 19:10:08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-03-23 19:10:08</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-03-23 19:10:08</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-03-23 19:10:16</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FMSV2023030038</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bach Mai Hospital</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>EC-530WI</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3G591A036</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-03-21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2023-03-27 17:09:51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-03-27 17:09:51</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-03-27 17:09:51</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-03-27 17:09:58</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>11</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FMSV2023030045</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Buon Ma Thuot Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EG-720R</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3G412K214</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2023-03-22 15:41:07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023-03-22 15:41:07</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-03-22 15:41:07</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023-04-03 18:08:46</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FMSV2023030047</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>EG-530WR</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5G361K111</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2023-03-27 18:45:06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2023-03-27 18:45:06</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-03-27 18:45:06</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-03-27 18:45:13</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FMSV2023030051</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>EG-760R</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6G402K254</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2023-03-23 10:34:43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2023-03-23 10:34:43</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-03-23 10:34:43</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2023-05-10 17:30:10</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FMSV2023030055</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bach Mai Hospital</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>EC-590WI</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1C607K008</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2023-03-30 16:43:10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-03-30 16:43:10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-03-30 16:43:10</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2023-04-12 17:04:36</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FMSV2023030056</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bach Mai Hospital</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6C692K137</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2023-03-28 18:45:36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2023-03-28 18:45:36</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-03-28 18:45:36</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2023-04-11 18:44:03</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FMSV2023030057</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EG-760R</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>JG402K339</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2023-03-23 10:40:08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2023-03-23 10:40:08</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2023-03-23 10:40:08</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023-03-27 14:51:44</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>11</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FMSV2023030059</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nghe An Friendship General Hospital</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>EG-530WR</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2G361K799</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2023-03-29 18:17:03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2023-03-29 18:17:03</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-03-29 18:17:03</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-03-29 18:17:11</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>22</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FMSV2023030062</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7G391K100</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2023-03-29 18:32:20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2023-03-29 18:32:20</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023-03-29 18:32:20</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023-04-14 15:52:05</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>6</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FMSV2023030063</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4G391K037</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2023-03-29 19:00:46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2023-03-29 19:00:46</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-03-29 19:00:46</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2023-04-05 13:00:14</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>12</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FMSV2023030064</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1C692K517</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2023-03-29 15:38:08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2023-03-29 15:38:08</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2023-03-29 15:38:08</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2023-03-30 17:34:04</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>8</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FMSV2023030065</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>EG-580NW2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1G390K230</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2023-03-27 11:20:54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2023-03-27 11:20:54</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2023-03-27 11:20:54</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023-04-03 18:09:53</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FMSV2023030066</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hue University of Medicine and Pharmacy - Ginec</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>EG-580NW2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7G390K268</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2023-03-27 11:55:30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2023-03-27 11:55:30</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2023-03-27 11:55:30</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2023-04-06 18:04:49</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FMSV2023030071</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9G391K104</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2023-03-29 20:43:30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2023-03-29 20:43:30</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2023-03-29 20:43:30</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2023-03-29 20:43:37</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FMSV2023030072</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1G391K524</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2023-03-29 11:57:51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023-03-29 11:57:51</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2023-03-29 11:57:51</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2023-04-14 14:52:37</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>7</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FMSV2023030074</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>EC-201WI</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>RC328A035</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2023-04-04 17:05:37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2023-04-04 17:05:37</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2023-04-04 17:05:37</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023-04-04 17:05:45</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FMSV2023030076</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Bach Mai Hospital</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8G391K376</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2023-04-10 12:22:34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2023-04-10 12:22:34</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2023-04-10 12:22:34</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2023-04-10 12:22:42</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>8</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FMSV2023030077</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Bach Mai Hospital</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5C692K022</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2023-04-03 18:30:53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023-04-03 18:30:53</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2023-04-03 18:30:53</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2023-04-13 15:57:27</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FMSV2023030080</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vietnam-Sweden Uong Bi Hospital</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>EG-250WR5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3G202K013</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2023-03-31 13:56:55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023-03-31 13:56:55</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2023-03-31 13:56:55</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2023-03-31 13:59:50</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>7</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FMSV2023040001</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NGHE AN MEDICAL EQUIPMENT &amp; PHARMACEUTICAL JOINT STOCK COMPANY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>EG-250WR5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3G202K087</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2023-04-05 18:05:44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2023-04-05 18:05:44</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2023-04-05 18:05:44</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2023-04-21 18:18:34</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FMSV2023040003</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Bach Mai Hospital</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8G391K433</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2023-04-11 15:35:28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2023-04-11 15:35:28</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2023-04-11 15:35:28</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2023-04-24 12:55:15</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FMSV2023040007</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5G391K022</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2023-04-13 12:27:02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2023-04-13 12:27:02</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2023-04-13 12:27:02</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2023-04-13 12:27:11</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>5</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>FMSV2023040008</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1C692K868</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2023-04-12 18:13:46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2023-04-12 18:13:46</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023-04-12 18:13:46</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2023-04-12 18:13:53</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>6</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>FMSV2023040009</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2G391K779</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2023-04-12 17:42:45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2023-04-12 17:42:45</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2023-04-12 17:42:45</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2023-04-12 17:42:55</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>7</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FMSV2023040011</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2G391K044</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2023-04-11 17:17:29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2023-04-11 17:17:29</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023-04-11 17:17:29</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2023-04-14 15:13:22</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>6</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FMSV2023040012</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4G391K120</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2023-04-11 19:21:56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2023-04-11 19:21:56</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2023-04-11 19:21:56</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2023-04-13 12:33:47</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>7</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FMSV2023040013</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1C692K442</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2023-04-06 15:21:11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023-04-06 15:21:11</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2023-04-06 15:21:11</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2023-04-17 10:00:20</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>3</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FMSV2023040014</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>EG-530WR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5G361K065</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2023-04-12 17:07:39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2023-04-12 17:07:39</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2023-04-12 17:07:39</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2023-04-12 17:08:09</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>8</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FMSV2023040016</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EG-590WR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2G348K613</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2023-04-12 16:39:58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2023-04-12 16:39:58</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2023-04-12 16:39:58</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2023-04-12 16:42:05</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FMSV2023040018</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Thai Binh city general hospital</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>EG-530WR</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LG361K344</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-04-05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2023-04-05 15:58:44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2023-04-05 15:58:44</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2023-04-05 15:58:44</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2023-04-05 15:58:50</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2023-04-05</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>15</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>FMSV2023040022</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ITO DONG NAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EG-250WR5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3G202K018</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2023-04-11 17:13:26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2023-04-11 17:13:26</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2023-04-11 17:13:26</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2023-04-11 17:14:25</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>9</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>FMSV2023040023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Vietnam – Cuba Donghoi Friendship Hospital</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>EG-760R</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9G402K763</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2023-04-17 19:45:27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2023-04-17 19:45:27</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2023-04-17 19:45:27</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2023-04-17 19:46:14</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>FMSV2023040026</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>EG-760R</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1G402K223</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2023-04-13 12:31:24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2023-04-13 12:31:24</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2023-04-13 12:31:24</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2023-04-13 12:31:40</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>7</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FMSV2023040028</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Viet Nhat Clinic 3 - Dr.Giang's clinic</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5G391K132</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2023-04-20 12:18:48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2023-04-20 12:18:48</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2023-04-20 12:18:48</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2023-04-20 12:18:57</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>10</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FMSV2023040029</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5C692K025</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2023-04-12 18:22:44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2023-04-12 18:22:44</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2023-04-12 18:22:44</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2023-04-12 18:22:55</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>6</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>FMSV2023040030</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4G391K119</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2023-04-13 14:05:43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2023-04-13 14:05:43</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2023-04-13 14:05:43</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2023-04-13 14:06:59</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>FMSV2023040031</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5C692K032</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:18:08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:18:08</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:18:08</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:18:17</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>FMSV2023040035</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7C692K181</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:11:17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:11:17</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:11:17</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:11:24</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FMSV2023040037</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>EG-530WR</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4G361K141</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:13:22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:13:22</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:13:22</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2023-04-18 13:13:29</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>FMSV2023040042</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ETC Company</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>EG-530WR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4G361K017</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2023-04-19 10:35:55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2023-04-19 10:35:55</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2023-04-19 10:35:55</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2023-04-19 10:36:06</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>26</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2023-05-15</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>FMSV2023040044</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Bach Mai Hospital</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3C692K101</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:20:43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:20:43</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:20:43</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:20:50</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>FMSV2023040047</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>EG-530NW</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2G366D128</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:13:52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:13:52</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:13:52</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:14:38</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FMSV2023040050</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Bach Mai Hospital</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6C692K128</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2023-04-24 17:32:25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2023-04-24 17:32:25</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2023-04-24 17:32:25</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2023-04-24 17:32:35</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>11</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FMSV2023040051</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Soc Son Hospital</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>EC-250WI5</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SC311A003</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2023-04-20 13:20:55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2023-04-20 13:20:55</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2023-04-20 13:20:55</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2023-04-20 13:21:11</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>7</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>FMSV2023040052</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>VP-4450HD</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3V567K036</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2023-04-24 17:34:20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2023-04-24 17:34:20</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2023-04-24 17:34:20</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2023-04-24 17:34:27</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FMSV2023040053</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>VP-4450HD</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2V567K891</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2023-04-24 15:36:08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2023-04-24 15:36:08</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2023-04-24 15:36:08</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2023-04-24 15:36:16</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FMSV2023040054</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3C692K103</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2023-04-19 18:21:24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2023-04-19 18:21:24</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2023-04-19 18:21:24</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2023-04-19 18:21:32</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FMSV2023040055</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2G391K778</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2023-04-25 16:29:31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2023-04-25 16:29:31</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2023-04-25 16:29:31</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2023-04-25 16:29:39</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>FMSV2023040056</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2G391K088</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:18:29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:18:29</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:18:29</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2023-04-19 13:19:12</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>16</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FMSV2023040059</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>HOA BINH GENERAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>EB-530T</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5B084K007</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2023-04-26 12:31:03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2023-04-26 12:31:03</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2023-04-26 12:31:03</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2023-04-26 12:31:13</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FMSV2023040061</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Thai Binh Hospital</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>EG-530WR</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>LG361K357</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2023-04-24 11:40:23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2023-04-24 11:40:23</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2023-04-24 11:40:23</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2023-04-24 11:40:33</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>FMSV2023040062</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Lam Hoa Private Hospital</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>EC-250WL5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1C309K245</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2023-04-25 13:56:50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2023-04-25 13:56:50</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2023-04-25 13:56:50</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2023-04-25 13:57:02</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>FMSV2023040071</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Buon Ma Thuot Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>EG-720R</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3G412K285</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2023-04-27 18:28:43</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2023-04-27 18:28:43</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2023-04-27 18:28:43</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2023-05-12 09:58:11</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FMSV2023040072</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>EG-760R</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2G402K099</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2023-05-09 10:18:42</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2023-05-09 10:18:42</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2023-05-09 10:18:42</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2023-05-09 10:19:44</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>13</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>FMSV2023040073</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>HOA BINH GENERAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>EG-530FP</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1G374K042</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2023-04-28 11:44:20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2023-04-28 11:44:20</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2023-04-28 11:44:20</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2023-04-28 11:44:30</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>11</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>FMSV2023040074</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>VP-4450HD</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3V567K003</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:24:46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:24:46</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:24:46</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:24:54</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>FMSV2023040075</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>EC-600WI</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2C692K096</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2023-05-04 12:05:52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2023-05-04 12:05:52</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2023-05-04 12:05:52</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2023-05-04 12:06:03</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FMSV2023040076</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Hanoi Medical University Hospital</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2G391K086</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2023-05-04 11:56:58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2023-05-04 11:56:58</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2023-05-04 11:56:58</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2023-05-04 11:57:07</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>14</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>FMSV2023040080</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>EG-590WR</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2G348K409</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:07:43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:07:43</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:07:43</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:07:52</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>FMSV2023040081</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>EG-590WR</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5G348A471</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:09:36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:09:36</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:09:36</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:09:43</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FMSV2023040082</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>EC-760R-V/I</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4C728K103</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:11:27</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:11:27</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:11:27</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:11:35</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FMSV2023040083</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>EC-760ZP-V/M</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1C730K094</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:12:56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:12:56</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:12:56</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:13:03</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>FMSV2023040084</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>EG-740N</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1G399K079</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:14:27</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:14:27</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:14:27</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:14:36</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>FMSV2023040085</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Hoang Long Clinic</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>EG-760Z</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1G403K227</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:16:11</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:16:11</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:16:11</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:16:27</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>FMSV2023040086</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>EG-590WR</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2G348K613</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:18:11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:18:11</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:18:11</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:18:20</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>FMSV2023040087</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>EC-760R-V/I</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6C728K116</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:19:43</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:19:43</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:19:43</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:19:51</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>FMSV2023040088</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ED-580XT</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3D127K095</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:21:25</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:21:25</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:21:25</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2023-05-04 17:21:35</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>FMSV2023050003</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Viet Nhat Clinic 3 - Dr.Giang's clinic</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>EC-530WL3</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3C643K014</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2023-05-10 15:05:33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2023-05-10 15:05:33</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2023-05-10 15:05:33</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2023-05-10 15:05:39</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>13</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>FMSV2023050005</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>EC-530WI</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4C591A001</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2023-05-05 15:50:40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2023-05-05 15:50:40</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2023-05-05 15:50:40</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2023-05-05 15:51:20</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>FMSV2023050009</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Tay Nguyen Regional General Hospital</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>EG-530WR</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5G361K061</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2023-05-18 11:42:59</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2023-05-18 11:42:59</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2023-05-18 11:42:59</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2023-05-18 11:43:06</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>6</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>FMSV2023050014</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Thanh An- Ha Noi limited company</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>EC-760R-V/I</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1C728K087</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2023-05-15 15:40:42</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2023-05-15 15:40:42</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2023-05-15 15:40:42</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2023-05-15 15:40:50</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2023-05-15</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>4</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>FMSV2023050019</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Thien Hanh Hospital</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>XL-4450</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3S094K394</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2023-05-11 11:53:41</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2023-05-11 11:53:41</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2023-05-11 11:53:41</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2023-05-11 11:53:52</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>4</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2023-05-15</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>FMSV2023050022</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FUJIFILM Vietnam Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>EG-600WR</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1G391K315</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2023-05-11 17:59:33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2023-05-11 17:59:33</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2023-05-11 17:59:33</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2023-05-11 17:59:47</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>11</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FMSV2023050031</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Phu Tho General Hospital</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>EC-530WL3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>JC643K007</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2023-05-17 18:12:18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2023-05-17 18:12:18</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2023-05-17 18:12:18</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2023-05-17 18:12:27</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>FMSV2023050032</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Phu Tho General Hospital</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>EG-530WR</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>JG361K643</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2023-05-17 18:22:10</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2023-05-17 18:22:10</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2023-05-17 18:22:10</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2023-05-17 18:22:18</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>FMSV2023050040</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Hoang Long Clinic</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>EG-580UR</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1U048K096</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2023-05-24 15:56:45</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2023-05-24 15:56:45</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2023-05-24 15:56:45</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2023-05-24 15:56:51</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>FMSV2023050052</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Hue University of Medicine and Pharmacy - Ginec</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>EC-530WI3</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2C642D166</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2023-05-24 12:51:34</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2023-05-24 12:51:34</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2023-05-24 12:51:34</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2023-05-24 12:51:41</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>FMSV2023080081</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FTYO - Loaner Asset</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>XL-4450</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1S094K191</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2023-08-25 17:16:07</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2023-08-25 17:16:07</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2023-08-25 17:16:07</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2023-09-18 17:17:46</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2023-09-18 17:17:46</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2023-09-18 17:17:46</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
